--- a/Dashboards/DashBoard_СолодиловВВ_EX.xlsx
+++ b/Dashboards/DashBoard_СолодиловВВ_EX.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5400" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="5400" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Общая статистика" sheetId="1" r:id="rId1"/>
@@ -184,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -239,6 +239,7 @@
     <xf numFmtId="13" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1669,7 +1670,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.9111143503673708E-2"/>
+          <c:y val="0.10320681464180914"/>
+          <c:w val="0.90272569249726009"/>
+          <c:h val="0.72900407067109674"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
@@ -2069,7 +2080,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -2160,7 +2183,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -2253,7 +2288,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -2346,7 +2397,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -2439,7 +2506,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -2478,7 +2561,7 @@
             <c:numRef>
               <c:f>'Общая статистика'!$Q$16:$Q$23</c:f>
               <c:numCache>
-                <c:formatCode>#\ ??/??</c:formatCode>
+                <c:formatCode>#" "???/???</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -2534,6 +2617,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2592,9 +2689,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2638,14 +2746,30 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2672,6 +2796,7 @@
         <c:crossAx val="443590112"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="5.000000000000001E-2"/>
       </c:valAx>
       <c:catAx>
         <c:axId val="443590112"/>
@@ -3880,15 +4005,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>838617</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>492254</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>183466</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1255250</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>534814</xdr:colOff>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>173921</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4462,43 +4587,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA106"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17" style="16" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" style="16" customWidth="1"/>
     <col min="3" max="3" width="32" style="16" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="35.42578125" style="16" customWidth="1"/>
-    <col min="6" max="6" width="29.7109375" style="16" customWidth="1"/>
-    <col min="7" max="7" width="23.7109375" style="16" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" style="16" customWidth="1"/>
-    <col min="9" max="9" width="28.85546875" style="16" customWidth="1"/>
-    <col min="10" max="10" width="25.5703125" style="16" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="16" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="16" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" style="16" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="16"/>
-    <col min="15" max="15" width="24.42578125" style="16" customWidth="1"/>
-    <col min="16" max="16" width="19.85546875" style="16" customWidth="1"/>
-    <col min="17" max="17" width="26.28515625" style="16" customWidth="1"/>
-    <col min="18" max="18" width="29.5703125" style="16" customWidth="1"/>
-    <col min="19" max="19" width="30.7109375" style="16" customWidth="1"/>
-    <col min="20" max="20" width="30.28515625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="35.44140625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="22.44140625" style="16" customWidth="1"/>
+    <col min="9" max="9" width="28.88671875" style="16" customWidth="1"/>
+    <col min="10" max="10" width="25.5546875" style="16" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" style="16" customWidth="1"/>
+    <col min="12" max="12" width="13.5546875" style="16" customWidth="1"/>
+    <col min="13" max="13" width="11.5546875" style="16" customWidth="1"/>
+    <col min="14" max="14" width="9.109375" style="16"/>
+    <col min="15" max="15" width="24.44140625" style="16" customWidth="1"/>
+    <col min="16" max="16" width="19.88671875" style="16" customWidth="1"/>
+    <col min="17" max="17" width="26.33203125" style="16" customWidth="1"/>
+    <col min="18" max="18" width="29.5546875" style="16" customWidth="1"/>
+    <col min="19" max="19" width="30.6640625" style="16" customWidth="1"/>
+    <col min="20" max="20" width="30.33203125" style="16" customWidth="1"/>
     <col min="21" max="21" width="28" style="16" customWidth="1"/>
-    <col min="22" max="22" width="28.5703125" style="16" customWidth="1"/>
+    <col min="22" max="22" width="28.5546875" style="16" customWidth="1"/>
     <col min="23" max="23" width="32" style="16" customWidth="1"/>
-    <col min="24" max="24" width="27.85546875" style="16" customWidth="1"/>
-    <col min="25" max="25" width="27.7109375" style="16" customWidth="1"/>
-    <col min="26" max="26" width="25.42578125" style="16" customWidth="1"/>
-    <col min="27" max="27" width="12.140625" style="16" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="16"/>
+    <col min="24" max="24" width="27.88671875" style="16" customWidth="1"/>
+    <col min="25" max="25" width="27.6640625" style="16" customWidth="1"/>
+    <col min="26" max="26" width="25.44140625" style="16" customWidth="1"/>
+    <col min="27" max="27" width="12.109375" style="16" customWidth="1"/>
+    <col min="28" max="16384" width="9.109375" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -4551,7 +4676,7 @@
         <v>3195.304761904762</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" s="17">
         <v>44807</v>
       </c>
@@ -4616,7 +4741,7 @@
         <v>4580611.6754578752</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" s="17">
         <v>44808</v>
       </c>
@@ -4633,7 +4758,7 @@
         <v>1.5473226630404662</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" s="17">
         <v>44809</v>
       </c>
@@ -4656,7 +4781,7 @@
         <v>4.2108222019668506</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" s="17">
         <v>44810</v>
       </c>
@@ -4691,12 +4816,12 @@
         <f t="shared" ref="V5:V13" si="0" xml:space="preserve"> Q6 / COUNT($A$2:$A$106)</f>
         <v>0</v>
       </c>
-      <c r="W5" s="22">
+      <c r="W5" s="26">
         <f xml:space="preserve"> V5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6" s="17">
         <v>44811</v>
       </c>
@@ -4737,12 +4862,12 @@
         <f t="shared" si="0"/>
         <v>0.15238095238095239</v>
       </c>
-      <c r="W6" s="22">
+      <c r="W6" s="26">
         <f xml:space="preserve"> W5 + V6</f>
         <v>0.15238095238095239</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7" s="17">
         <v>44812</v>
       </c>
@@ -4778,12 +4903,12 @@
         <f t="shared" si="0"/>
         <v>0.24761904761904763</v>
       </c>
-      <c r="W7" s="22">
+      <c r="W7" s="26">
         <f t="shared" ref="W7:W13" si="2" xml:space="preserve"> W6 + V7</f>
         <v>0.4</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8" s="17">
         <v>44813</v>
       </c>
@@ -4819,12 +4944,12 @@
         <f t="shared" si="0"/>
         <v>0.40952380952380951</v>
       </c>
-      <c r="W8" s="22">
+      <c r="W8" s="26">
         <f t="shared" si="2"/>
         <v>0.80952380952380953</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9" s="17">
         <v>44814</v>
       </c>
@@ -4860,12 +4985,12 @@
         <f t="shared" si="0"/>
         <v>8.5714285714285715E-2</v>
       </c>
-      <c r="W9" s="22">
+      <c r="W9" s="26">
         <f t="shared" si="2"/>
         <v>0.89523809523809528</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10" s="17">
         <v>44815</v>
       </c>
@@ -4901,12 +5026,12 @@
         <f t="shared" si="0"/>
         <v>7.6190476190476197E-2</v>
       </c>
-      <c r="W10" s="22">
+      <c r="W10" s="26">
         <f t="shared" si="2"/>
         <v>0.97142857142857153</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A11" s="17">
         <v>44816</v>
       </c>
@@ -4942,12 +5067,12 @@
         <f t="shared" si="0"/>
         <v>9.5238095238095247E-3</v>
       </c>
-      <c r="W11" s="22">
+      <c r="W11" s="26">
         <f t="shared" si="2"/>
         <v>0.98095238095238102</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A12" s="17">
         <v>44817</v>
       </c>
@@ -4983,12 +5108,12 @@
         <f t="shared" si="0"/>
         <v>9.5238095238095247E-3</v>
       </c>
-      <c r="W12" s="22">
+      <c r="W12" s="26">
         <f t="shared" si="2"/>
         <v>0.99047619047619051</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13" s="17">
         <v>44818</v>
       </c>
@@ -5021,15 +5146,14 @@
         <v>1</v>
       </c>
       <c r="V13" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W13" s="22">
+        <v>9.5238095238095247E-3</v>
+      </c>
+      <c r="W13" s="26">
         <f t="shared" si="2"/>
-        <v>0.99047619047619051</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14" s="17">
         <v>44819</v>
       </c>
@@ -5063,10 +5187,10 @@
       </c>
       <c r="V14" s="22">
         <f>SUM(V5:V13)</f>
-        <v>0.99047619047619051</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15" s="17">
         <v>44820</v>
       </c>
@@ -5076,8 +5200,12 @@
       <c r="C15" s="16">
         <v>909</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Q15" s="16">
+        <f>SUM(Q6:Q14)</f>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16" s="17">
         <v>44821</v>
       </c>
@@ -5095,7 +5223,7 @@
         <f t="shared" ref="P16:P23" si="3">Q7</f>
         <v>16</v>
       </c>
-      <c r="Q16" s="25">
+      <c r="Q16" s="21">
         <f t="shared" ref="Q16:Q23" si="4">W5</f>
         <v>0</v>
       </c>
@@ -5128,7 +5256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A17" s="17">
         <v>44822</v>
       </c>
@@ -5146,7 +5274,7 @@
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="Q17" s="25">
+      <c r="Q17" s="21">
         <f t="shared" si="4"/>
         <v>0.15238095238095239</v>
       </c>
@@ -5183,7 +5311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A18" s="17">
         <v>44823</v>
       </c>
@@ -5201,7 +5329,7 @@
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="Q18" s="25">
+      <c r="Q18" s="21">
         <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
@@ -5238,7 +5366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A19" s="17">
         <v>44824</v>
       </c>
@@ -5256,7 +5384,7 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="Q19" s="25">
+      <c r="Q19" s="21">
         <f t="shared" si="4"/>
         <v>0.80952380952380953</v>
       </c>
@@ -5293,7 +5421,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A20" s="17">
         <v>44825</v>
       </c>
@@ -5311,7 +5439,7 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="Q20" s="25">
+      <c r="Q20" s="21">
         <f t="shared" si="4"/>
         <v>0.89523809523809528</v>
       </c>
@@ -5348,7 +5476,7 @@
         <v>0.5625</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A21" s="17">
         <v>44826</v>
       </c>
@@ -5366,7 +5494,7 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q21" s="25">
+      <c r="Q21" s="21">
         <f t="shared" si="4"/>
         <v>0.97142857142857153</v>
       </c>
@@ -5403,7 +5531,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A22" s="17">
         <v>44827</v>
       </c>
@@ -5421,7 +5549,7 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q22" s="25">
+      <c r="Q22" s="21">
         <f t="shared" si="4"/>
         <v>0.98095238095238102</v>
       </c>
@@ -5457,7 +5585,7 @@
         <v>0.9375</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A23" s="17">
         <v>44828</v>
       </c>
@@ -5475,7 +5603,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q23" s="25">
+      <c r="Q23" s="21">
         <f t="shared" si="4"/>
         <v>0.99047619047619051</v>
       </c>
@@ -5511,7 +5639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A24" s="17">
         <v>44829</v>
       </c>
@@ -5524,7 +5652,7 @@
       <c r="H24" s="22"/>
       <c r="W24" s="23"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A25" s="17">
         <v>44830</v>
       </c>
@@ -5535,7 +5663,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A26" s="17">
         <v>44831</v>
       </c>
@@ -5546,7 +5674,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A27" s="17">
         <v>44832</v>
       </c>
@@ -5557,7 +5685,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A28" s="17">
         <v>44833</v>
       </c>
@@ -5568,7 +5696,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A29" s="17">
         <v>44834</v>
       </c>
@@ -5587,7 +5715,7 @@
         <v>1406.1547364558223</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A30" s="17">
         <v>44835</v>
       </c>
@@ -5606,7 +5734,7 @@
         <v>1198.4122177607173</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A31" s="17">
         <v>44836</v>
       </c>
@@ -5617,7 +5745,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A32" s="17">
         <v>44837</v>
       </c>
@@ -5628,7 +5756,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="17">
         <v>44838</v>
       </c>
@@ -5639,7 +5767,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="17">
         <v>44839</v>
       </c>
@@ -5650,7 +5778,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="17">
         <v>44840</v>
       </c>
@@ -5661,7 +5789,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="17">
         <v>44841</v>
       </c>
@@ -5672,7 +5800,7 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="17">
         <v>44842</v>
       </c>
@@ -5683,7 +5811,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="17">
         <v>44843</v>
       </c>
@@ -5694,7 +5822,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="17">
         <v>44844</v>
       </c>
@@ -5705,7 +5833,7 @@
         <v>2288</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="17">
         <v>44845</v>
       </c>
@@ -5716,7 +5844,7 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="17">
         <v>44846</v>
       </c>
@@ -5727,7 +5855,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="17">
         <v>44847</v>
       </c>
@@ -5738,7 +5866,7 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="17">
         <v>44848</v>
       </c>
@@ -5749,7 +5877,7 @@
         <v>2624</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="17">
         <v>44849</v>
       </c>
@@ -5760,7 +5888,7 @@
         <v>2756</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="17">
         <v>44850</v>
       </c>
@@ -5771,7 +5899,7 @@
         <v>2771</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="17">
         <v>44851</v>
       </c>
@@ -5782,7 +5910,7 @@
         <v>2790</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="17">
         <v>44852</v>
       </c>
@@ -5793,7 +5921,7 @@
         <v>2798</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="17">
         <v>44853</v>
       </c>
@@ -5804,7 +5932,7 @@
         <v>2804</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="17">
         <v>44854</v>
       </c>
@@ -5815,7 +5943,7 @@
         <v>2827</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="17">
         <v>44855</v>
       </c>
@@ -5826,7 +5954,7 @@
         <v>2840</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="17">
         <v>44856</v>
       </c>
@@ -5837,7 +5965,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="17">
         <v>44857</v>
       </c>
@@ -5848,7 +5976,7 @@
         <v>2878</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="17">
         <v>44858</v>
       </c>
@@ -5859,7 +5987,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="17">
         <v>44859</v>
       </c>
@@ -5870,7 +5998,7 @@
         <v>2953</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="17">
         <v>44860</v>
       </c>
@@ -5881,7 +6009,7 @@
         <v>3005</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="17">
         <v>44861</v>
       </c>
@@ -5892,7 +6020,7 @@
         <v>3006</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="17">
         <v>44862</v>
       </c>
@@ -5903,7 +6031,7 @@
         <v>3024</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="17">
         <v>44863</v>
       </c>
@@ -5914,7 +6042,7 @@
         <v>3084</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="17">
         <v>44864</v>
       </c>
@@ -5925,7 +6053,7 @@
         <v>3145</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="17">
         <v>44865</v>
       </c>
@@ -5944,7 +6072,7 @@
         <v>1198.4122177607173</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="17">
         <v>44866</v>
       </c>
@@ -5963,7 +6091,7 @@
         <v>2467.2410038876151</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="17">
         <v>44867</v>
       </c>
@@ -5974,7 +6102,7 @@
         <v>3256</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="17">
         <v>44868</v>
       </c>
@@ -5985,7 +6113,7 @@
         <v>3296</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="17">
         <v>44869</v>
       </c>
@@ -5996,7 +6124,7 @@
         <v>3354</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="17">
         <v>44870</v>
       </c>
@@ -6007,7 +6135,7 @@
         <v>3359</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="17">
         <v>44871</v>
       </c>
@@ -6018,7 +6146,7 @@
         <v>3379</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="17">
         <v>44872</v>
       </c>
@@ -6029,7 +6157,7 @@
         <v>3381</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="17">
         <v>44873</v>
       </c>
@@ -6040,7 +6168,7 @@
         <v>3407</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="17">
         <v>44874</v>
       </c>
@@ -6051,7 +6179,7 @@
         <v>3409</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="17">
         <v>44875</v>
       </c>
@@ -6062,7 +6190,7 @@
         <v>3433</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="17">
         <v>44876</v>
       </c>
@@ -6073,7 +6201,7 @@
         <v>3554</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="17">
         <v>44877</v>
       </c>
@@ -6084,7 +6212,7 @@
         <v>3570</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="17">
         <v>44878</v>
       </c>
@@ -6095,7 +6223,7 @@
         <v>3625</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="17">
         <v>44879</v>
       </c>
@@ -6106,7 +6234,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="17">
         <v>44880</v>
       </c>
@@ -6117,7 +6245,7 @@
         <v>3763</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="17">
         <v>44881</v>
       </c>
@@ -6128,7 +6256,7 @@
         <v>3847</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="17">
         <v>44882</v>
       </c>
@@ -6139,7 +6267,7 @@
         <v>3853</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="17">
         <v>44883</v>
       </c>
@@ -6150,7 +6278,7 @@
         <v>3919</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="17">
         <v>44884</v>
       </c>
@@ -6161,7 +6289,7 @@
         <v>3949</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="17">
         <v>44885</v>
       </c>
@@ -6172,7 +6300,7 @@
         <v>3969</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="17">
         <v>44886</v>
       </c>
@@ -6183,7 +6311,7 @@
         <v>3978</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="17">
         <v>44887</v>
       </c>
@@ -6194,7 +6322,7 @@
         <v>4046</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="17">
         <v>44888</v>
       </c>
@@ -6205,7 +6333,7 @@
         <v>4173</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="17">
         <v>44889</v>
       </c>
@@ -6216,7 +6344,7 @@
         <v>4183</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="17">
         <v>44890</v>
       </c>
@@ -6227,7 +6355,7 @@
         <v>4359</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="17">
         <v>44891</v>
       </c>
@@ -6238,7 +6366,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="17">
         <v>44892</v>
       </c>
@@ -6249,7 +6377,7 @@
         <v>4429</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="17">
         <v>44893</v>
       </c>
@@ -6260,7 +6388,7 @@
         <v>4560</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="17">
         <v>44894</v>
       </c>
@@ -6271,7 +6399,7 @@
         <v>4561</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="17">
         <v>44895</v>
       </c>
@@ -6290,7 +6418,7 @@
         <v>2467.2410038876151</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="17">
         <v>44896</v>
       </c>
@@ -6309,7 +6437,7 @@
         <v>2022.2696490165038</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="17">
         <v>44897</v>
       </c>
@@ -6320,7 +6448,7 @@
         <v>5127</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="17">
         <v>44898</v>
       </c>
@@ -6331,7 +6459,7 @@
         <v>5304</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="17">
         <v>44899</v>
       </c>
@@ -6342,7 +6470,7 @@
         <v>5606</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="17">
         <v>44900</v>
       </c>
@@ -6353,7 +6481,7 @@
         <v>5981</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="17">
         <v>44901</v>
       </c>
@@ -6364,7 +6492,7 @@
         <v>6185</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="17">
         <v>44902</v>
       </c>
@@ -6375,7 +6503,7 @@
         <v>6260</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="17">
         <v>44903</v>
       </c>
@@ -6386,7 +6514,7 @@
         <v>6276</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="17">
         <v>44904</v>
       </c>
@@ -6397,7 +6525,7 @@
         <v>6309</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="17">
         <v>44905</v>
       </c>
@@ -6408,7 +6536,7 @@
         <v>6605</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="17">
         <v>44906</v>
       </c>
@@ -6419,7 +6547,7 @@
         <v>6941</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" s="17">
         <v>44907</v>
       </c>
@@ -6430,7 +6558,7 @@
         <v>7644</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" s="17">
         <v>44908</v>
       </c>
@@ -6441,7 +6569,7 @@
         <v>7749</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="17">
         <v>44909</v>
       </c>
@@ -6452,7 +6580,7 @@
         <v>8154</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" s="17">
         <v>44910</v>
       </c>
@@ -6463,7 +6591,7 @@
         <v>10505</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" s="17">
         <v>44911</v>
       </c>
@@ -6495,7 +6623,7 @@
     <sortCondition ref="C2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -6504,26 +6632,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
+    <col min="3" max="3" width="32.109375" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="30.85546875" customWidth="1"/>
-    <col min="9" max="9" width="28.28515625" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" customWidth="1"/>
-    <col min="11" max="19" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="30.88671875" customWidth="1"/>
+    <col min="9" max="9" width="28.33203125" customWidth="1"/>
+    <col min="10" max="10" width="19.44140625" customWidth="1"/>
+    <col min="11" max="19" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -6553,7 +6681,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>44807</v>
       </c>
@@ -6589,7 +6717,7 @@
         <v>1067.4765445558073</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>44808</v>
       </c>
@@ -6607,7 +6735,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>44809</v>
       </c>
@@ -6638,7 +6766,7 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>44810</v>
       </c>
@@ -6669,7 +6797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>44811</v>
       </c>
@@ -6699,7 +6827,7 @@
         <v>0.10714285714285714</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>44812</v>
       </c>
@@ -6729,7 +6857,7 @@
         <v>0.3214285714285714</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>44813</v>
       </c>
@@ -6759,7 +6887,7 @@
         <v>0.6071428571428571</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>44814</v>
       </c>
@@ -6789,7 +6917,7 @@
         <v>0.8571428571428571</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>44815</v>
       </c>
@@ -6819,7 +6947,7 @@
         <v>0.96428571428571419</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>44816</v>
       </c>
@@ -6849,7 +6977,7 @@
         <v>0.96428571428571419</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>44817</v>
       </c>
@@ -6880,7 +7008,7 @@
       </c>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>44818</v>
       </c>
@@ -6901,7 +7029,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>44819</v>
       </c>
@@ -6919,7 +7047,7 @@
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
     </row>
-    <row r="15" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>44820</v>
       </c>
@@ -6936,7 +7064,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>44821</v>
       </c>
@@ -6965,7 +7093,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="10"/>
     </row>
-    <row r="17" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>44822</v>
       </c>
@@ -6994,7 +7122,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="10"/>
     </row>
-    <row r="18" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>44823</v>
       </c>
@@ -7023,7 +7151,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="10"/>
     </row>
-    <row r="19" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>44824</v>
       </c>
@@ -7052,7 +7180,7 @@
       <c r="K19" s="3"/>
       <c r="L19" s="10"/>
     </row>
-    <row r="20" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>44825</v>
       </c>
@@ -7081,7 +7209,7 @@
       <c r="K20" s="3"/>
       <c r="L20" s="10"/>
     </row>
-    <row r="21" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>44826</v>
       </c>
@@ -7110,7 +7238,7 @@
       <c r="K21" s="3"/>
       <c r="L21" s="10"/>
     </row>
-    <row r="22" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>44827</v>
       </c>
@@ -7139,7 +7267,7 @@
       <c r="K22" s="3"/>
       <c r="L22" s="14"/>
     </row>
-    <row r="23" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>44828</v>
       </c>
@@ -7155,7 +7283,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>44829</v>
       </c>
@@ -7171,7 +7299,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>44830</v>
       </c>
@@ -7189,7 +7317,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>44831</v>
       </c>
@@ -7207,7 +7335,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>44832</v>
       </c>
@@ -7225,7 +7353,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>44833</v>
       </c>
@@ -7243,7 +7371,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>44834</v>
       </c>
@@ -7278,22 +7406,22 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
+    <col min="3" max="3" width="32.109375" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="30.85546875" customWidth="1"/>
+    <col min="8" max="8" width="30.88671875" customWidth="1"/>
     <col min="9" max="9" width="28" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" customWidth="1"/>
-    <col min="11" max="19" width="10.5703125" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
+    <col min="11" max="19" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -7323,7 +7451,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>44835</v>
       </c>
@@ -7359,7 +7487,7 @@
         <v>690.22937690675496</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>44836</v>
       </c>
@@ -7377,7 +7505,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>44837</v>
       </c>
@@ -7408,7 +7536,7 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>44838</v>
       </c>
@@ -7440,7 +7568,7 @@
       </c>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>44839</v>
       </c>
@@ -7471,7 +7599,7 @@
       </c>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>44840</v>
       </c>
@@ -7502,7 +7630,7 @@
       </c>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>44841</v>
       </c>
@@ -7533,7 +7661,7 @@
       </c>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>44842</v>
       </c>
@@ -7564,7 +7692,7 @@
       </c>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>44843</v>
       </c>
@@ -7595,7 +7723,7 @@
       </c>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>44844</v>
       </c>
@@ -7626,7 +7754,7 @@
       </c>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>44845</v>
       </c>
@@ -7657,7 +7785,7 @@
       </c>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>44846</v>
       </c>
@@ -7678,7 +7806,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>44847</v>
       </c>
@@ -7699,7 +7827,7 @@
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
     </row>
-    <row r="15" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>44848</v>
       </c>
@@ -7717,7 +7845,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>44849</v>
       </c>
@@ -7744,7 +7872,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>44850</v>
       </c>
@@ -7771,7 +7899,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>44851</v>
       </c>
@@ -7798,7 +7926,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>44852</v>
       </c>
@@ -7825,7 +7953,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>44853</v>
       </c>
@@ -7852,7 +7980,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>44854</v>
       </c>
@@ -7879,7 +8007,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>44855</v>
       </c>
@@ -7906,7 +8034,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>44856</v>
       </c>
@@ -7924,7 +8052,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>44857</v>
       </c>
@@ -7942,7 +8070,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>44858</v>
       </c>
@@ -7960,7 +8088,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>44859</v>
       </c>
@@ -7978,7 +8106,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>44860</v>
       </c>
@@ -7996,7 +8124,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>44861</v>
       </c>
@@ -8014,7 +8142,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>44862</v>
       </c>
@@ -8032,7 +8160,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>44863</v>
       </c>
@@ -8050,7 +8178,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>44864</v>
       </c>
@@ -8068,7 +8196,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>44865</v>
       </c>
@@ -8099,26 +8227,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
+    <col min="3" max="3" width="32.109375" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="30.85546875" customWidth="1"/>
-    <col min="9" max="9" width="27.42578125" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" customWidth="1"/>
-    <col min="11" max="19" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="30.88671875" customWidth="1"/>
+    <col min="9" max="9" width="27.44140625" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" customWidth="1"/>
+    <col min="11" max="19" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8148,7 +8276,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="11">
         <v>44866</v>
       </c>
@@ -8184,7 +8312,7 @@
         <v>2149.5173745086795</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>44867</v>
       </c>
@@ -8202,7 +8330,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
         <v>44868</v>
       </c>
@@ -8233,7 +8361,7 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
         <v>44869</v>
       </c>
@@ -8265,7 +8393,7 @@
       </c>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>44870</v>
       </c>
@@ -8296,7 +8424,7 @@
       </c>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>44871</v>
       </c>
@@ -8327,7 +8455,7 @@
       </c>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <v>44872</v>
       </c>
@@ -8358,7 +8486,7 @@
       </c>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>44873</v>
       </c>
@@ -8389,7 +8517,7 @@
       </c>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>44874</v>
       </c>
@@ -8420,7 +8548,7 @@
       </c>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>44875</v>
       </c>
@@ -8451,7 +8579,7 @@
       </c>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>44876</v>
       </c>
@@ -8482,7 +8610,7 @@
       </c>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>44877</v>
       </c>
@@ -8503,7 +8631,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>44878</v>
       </c>
@@ -8524,7 +8652,7 @@
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
     </row>
-    <row r="15" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>44879</v>
       </c>
@@ -8542,7 +8670,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>44880</v>
       </c>
@@ -8569,7 +8697,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>44881</v>
       </c>
@@ -8596,7 +8724,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>44882</v>
       </c>
@@ -8623,7 +8751,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="11">
         <v>44883</v>
       </c>
@@ -8650,7 +8778,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
         <v>44884</v>
       </c>
@@ -8677,7 +8805,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="11">
         <v>44885</v>
       </c>
@@ -8704,7 +8832,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="11">
         <v>44886</v>
       </c>
@@ -8731,7 +8859,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="11">
         <v>44887</v>
       </c>
@@ -8749,7 +8877,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="11">
         <v>44888</v>
       </c>
@@ -8767,7 +8895,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="11">
         <v>44889</v>
       </c>
@@ -8785,7 +8913,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="11">
         <v>44890</v>
       </c>
@@ -8803,7 +8931,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="11">
         <v>44891</v>
       </c>
@@ -8821,7 +8949,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="11">
         <v>44892</v>
       </c>
@@ -8839,7 +8967,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="11">
         <v>44893</v>
       </c>
@@ -8857,7 +8985,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" s="11">
         <v>44894</v>
       </c>
@@ -8875,7 +9003,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="11">
         <v>44895</v>
       </c>
@@ -8893,7 +9021,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -8918,26 +9046,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
+    <col min="3" max="3" width="32.109375" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="30.85546875" customWidth="1"/>
-    <col min="9" max="9" width="31.140625" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" customWidth="1"/>
-    <col min="11" max="19" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="30.88671875" customWidth="1"/>
+    <col min="9" max="9" width="31.109375" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
+    <col min="11" max="19" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8967,7 +9095,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="11">
         <v>44896</v>
       </c>
@@ -9003,7 +9131,7 @@
         <v>1508.2600817982313</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>44897</v>
       </c>
@@ -9021,7 +9149,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
         <v>44898</v>
       </c>
@@ -9052,7 +9180,7 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
         <v>44899</v>
       </c>
@@ -9084,7 +9212,7 @@
       </c>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>44900</v>
       </c>
@@ -9115,7 +9243,7 @@
       </c>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>44901</v>
       </c>
@@ -9146,7 +9274,7 @@
       </c>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <v>44902</v>
       </c>
@@ -9177,7 +9305,7 @@
       </c>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>44903</v>
       </c>
@@ -9208,7 +9336,7 @@
       </c>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>44904</v>
       </c>
@@ -9239,7 +9367,7 @@
       </c>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>44905</v>
       </c>
@@ -9270,7 +9398,7 @@
       </c>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>44906</v>
       </c>
@@ -9290,7 +9418,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>44907</v>
       </c>
@@ -9308,7 +9436,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>44908</v>
       </c>
@@ -9329,7 +9457,7 @@
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
     </row>
-    <row r="15" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>44909</v>
       </c>
@@ -9347,7 +9475,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>44910</v>
       </c>
@@ -9374,7 +9502,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>44911</v>
       </c>
@@ -9401,7 +9529,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="11"/>
       <c r="B18" s="7"/>
       <c r="C18" s="3"/>
@@ -9422,7 +9550,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="11"/>
       <c r="B19" s="7"/>
       <c r="C19" s="3"/>
@@ -9443,7 +9571,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="11"/>
       <c r="B20" s="7"/>
       <c r="C20" s="3"/>
@@ -9464,7 +9592,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="11"/>
       <c r="B21" s="7"/>
       <c r="C21" s="3"/>
@@ -9485,7 +9613,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="11"/>
       <c r="B22" s="7"/>
       <c r="C22" s="3"/>
@@ -9497,7 +9625,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
       <c r="B23" s="7"/>
       <c r="C23" s="3"/>
@@ -9509,7 +9637,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="11"/>
       <c r="B24" s="7"/>
       <c r="C24" s="3"/>
@@ -9521,7 +9649,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="11"/>
       <c r="B25" s="7"/>
       <c r="C25" s="3"/>
@@ -9533,7 +9661,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="11"/>
       <c r="B26" s="7"/>
       <c r="C26" s="3"/>
@@ -9545,7 +9673,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="11"/>
       <c r="B27" s="7"/>
       <c r="C27" s="3"/>
@@ -9557,7 +9685,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="11"/>
       <c r="B28" s="7"/>
       <c r="C28" s="3"/>
@@ -9569,7 +9697,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="11"/>
       <c r="B29" s="7"/>
       <c r="C29" s="3"/>
@@ -9581,7 +9709,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" s="11"/>
       <c r="B30" s="7"/>
       <c r="C30" s="3"/>
@@ -9593,7 +9721,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="11"/>
       <c r="B31" s="7"/>
       <c r="C31" s="3"/>
@@ -9605,7 +9733,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
